--- a/date/反復計画書_05.xlsx
+++ b/date/反復計画書_05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55227009-4571-4F3F-92AD-6AF65E0B741B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B2379A-6825-4FF7-8EE9-8BAAF2C8ECB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,57 +461,6 @@
 ・予約済みのチケットを確認する</t>
   </si>
   <si>
-    <t>反復計画書(新規作成)
-WBS&amp;ガントチャート(新規作成)
-要求仕様書(新規作成)
-システム分析書(新規作成)
-設計仕様書(新規作成)
-テスト計画書(新規作成)
-テスト済のソースコード(新規作成)
-開発体験シート（更新）
-KPTによる振り返り結果（更新）</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ケイカクショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="71" eb="74">
-      <t>ケイカクショ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>反復計画書(更新)
 WBS&amp;ガントチャート(更新)
 要求仕様書(更新)
@@ -646,6 +595,69 @@
       <t>シンキ</t>
     </rPh>
     <rPh sb="92" eb="94">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書(新規作成)
+WBS&amp;ガントチャート(新規作成)
+要求仕様書(新規作成)
+システム分析書(新規作成)
+設計仕様書(新規作成)
+テスト計画書(新規作成)
+テスト済のソースコード(新規作成)
+開発体験シート（新規作成）
+KPTによる振り返り結果（新規作成）</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1501,7 +1513,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1629,13 +1641,13 @@
         <v>21</v>
       </c>
       <c r="C10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="E10" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1929,6 +1941,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2112,12 +2130,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
@@ -2127,6 +2139,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAB45A14-9FDA-4FA5-AC36-A9A31136D3B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2142,20 +2170,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/date/反復計画書_05.xlsx
+++ b/date/反復計画書_05.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B2379A-6825-4FF7-8EE9-8BAAF2C8ECB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270F9144-EB02-465E-8502-4590FF8EF3E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23610" yWindow="3120" windowWidth="15255" windowHeight="10920" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
@@ -1512,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1932,21 +1932,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2130,10 +2115,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAB45A14-9FDA-4FA5-AC36-A9A31136D3B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2155,19 +2165,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAB45A14-9FDA-4FA5-AC36-A9A31136D3B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>